--- a/media/documents/activity.xlsx
+++ b/media/documents/activity.xlsx
@@ -489,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,24 +505,25 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
-          <t>2024-06-03 10:54:42.991422+00:00</t>
+          <t>2024-06-07 04:24:08.601259+00:00</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>127.0.0.1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>SERVER (LOCAL)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
-          <t>Авторизация</t>
+          <t>Обновление прайс-листа</t>
         </is>
       </c>
     </row>

--- a/media/documents/activity.xlsx
+++ b/media/documents/activity.xlsx
@@ -489,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,22 +508,3886 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2024-06-03 10:54:42.991422+00:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2024-06-07 04:24:08.601259+00:00</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>127.0.0.1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SERVER (LOCAL)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Обновление прайс-листа</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-06-12 04:19:51.537014+00:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-06-12 11:31:21.378829+00:00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-06-12 11:31:44.100273+00:00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Загрузка файла "Основной прайс лист"</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-06-12 11:31:44.822464+00:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Скачивание файла "Основной прайс лист"</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-06-12 11:31:54.555512+00:00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-06-12 11:32:21.795487+00:00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Выход из аккаунта</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-06-12 11:32:27.213105+00:00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-06-14 05:36:51.529658+00:00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-06-15 06:47:39.339981+00:00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Добавление менеджера test_manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-06-15 06:48:03.724579+00:00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Выход из аккаунта</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-06-15 07:00:03.287828+00:00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-06-15 07:07:53.861953+00:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Изменение данных пользователя name103</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-06-15 07:08:20.622612+00:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Добавление дилера Shutrin.DV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-06-15 07:13:03.624750+00:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Добавление дилера sdfsfsfsfsdfsdsdfsfsdfsdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-06-15 07:14:48.849231+00:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Добавление дилера slfbvdilbvldsbvlsdvbdlsbvjfbdbflblds</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-06-15 07:19:06.607389+00:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Добавление дилера 57835487345879</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-06-15 07:20:25.222343+00:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Добавление дилера ыамывмвамывивыаиываи</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-06-15 07:21:15.302505+00:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Изменение данных пользователя ыамывмвамывивыаиываи</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-06-15 07:21:24.630145+00:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Выход из аккаунта</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-06-15 07:21:41.422164+00:00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-06-15 07:22:26.180549+00:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-06-15 07:28:46.492579+00:00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-06-15 07:29:05.955042+00:00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Создание папки yhyhyhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-06-15 07:29:08.385445+00:00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Просмотр папки yhyhyhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:31:54.758151+00:00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Изменение данных пользователя Olga</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:32:12.771951+00:00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Изменение данных пользователя name4</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:35:49.301914+00:00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Изменение данных пользователя name3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:37:28.598657+00:00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:37:36.149198+00:00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Загрузка файла "ываываываыва"</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:37:36.468707+00:00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Скачивание файла "ываываываыва"</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:37:43.508954+00:00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:39:43.204708+00:00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:40:13.209827+00:00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:44:04.703497+00:00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Создание папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:44:07.297773+00:00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:45:07.043678+00:00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:45:18.220649+00:00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:45:48.241871+00:00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Загрузка файла "Основной прайс-лист"</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:45:48.540576+00:00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Скачивание файла "Основной прайс-лист"</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:45:54.421703+00:00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Скачивание файла "Основной прайс-лист"</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:46:27.632643+00:00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:58:13.035257+00:00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:58:15.476388+00:00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:58:48.323471+00:00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2024-06-15 10:59:30.305870+00:00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2024-06-15 11:00:05.986393+00:00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Создание папки "новая папка внутри папки"</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2024-06-15 11:00:06.299545+00:00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2024-06-15 11:00:18.164477+00:00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2024-06-15 11:00:49.687021+00:00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2024-06-15 11:01:16.705348+00:00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2024-06-15 11:01:20.133435+00:00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2024-06-15 11:01:24.535284+00:00</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2024-06-15 11:01:25.271971+00:00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:40:46.899795+00:00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:41:38.910078+00:00</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:43:06.686628+00:00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:43:09.757464+00:00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:43:32.690912+00:00</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:43:44.107994+00:00</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:43:45.386916+00:00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:43:46.617240+00:00</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:43:48.455193+00:00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:44:04.332828+00:00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:44:08.447046+00:00</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:44:50.930636+00:00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:44:55.495438+00:00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:45:01.215757+00:00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:45:12.615130+00:00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:45:23.743147+00:00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:45:30.341859+00:00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:45:36.185601+00:00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:45:42.135124+00:00</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:45:43.152604+00:00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:45:44.587675+00:00</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:46:00.964839+00:00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:46:06.489848+00:00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:46:14.471136+00:00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:46:32.215305+00:00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:46:34.334985+00:00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:46:35.983770+00:00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:49:32.732074+00:00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Загрузка файла "Новый файл внутри 2й папки"</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:49:33.132645+00:00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Скачивание файла "Новый файл внутри 2й папки"</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:49:40.511102+00:00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:49:42.253519+00:00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:49:45.431896+00:00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:49:59.141898+00:00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Загрузка файла "Новый файл внутри 1й папки"</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:49:59.561858+00:00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Скачивание файла "Новый файл внутри 1й папки"</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:50:07.549023+00:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:50:09.804232+00:00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:50:12.059393+00:00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:51:51.505780+00:00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Скачивание файла "Основной прайс-лист"</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:53:40.951882+00:00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Загрузка файла "sfsvf"</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:53:42.795031+00:00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:53:50.998722+00:00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Загрузка файла "asdfsadfsafsdf"</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2024-06-15 14:53:51.392376+00:00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2024-06-16 08:16:41.084894+00:00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Выход из аккаунта</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2024-06-16 08:16:44.880463+00:00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2024-06-16 08:32:06.267735+00:00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2024-06-16 08:32:07.819574+00:00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2024-06-16 08:32:09.319876+00:00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2024-06-16 08:32:09.629323+00:00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2024-06-17 00:44:53.955214+00:00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2024-06-17 10:56:25.930068+00:00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Скачивание файла "Основной прайс-лист"</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2024-06-17 10:56:39.213218+00:00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2024-06-17 10:56:43.534338+00:00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2024-06-17 10:56:45.954404+00:00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:06:12.337997+00:00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Выход из аккаунта</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:08:05.688603+00:00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:09:38.881400+00:00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:12:07.664461+00:00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:12:51.321934+00:00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:12:58.359970+00:00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:13:04.266836+00:00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:13:19.142244+00:00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:14:05.598938+00:00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:14:19.989192+00:00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:14:23.608103+00:00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:14:44.343576+00:00</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:14:53.160393+00:00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:15:35.807136+00:00</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:15:37.091255+00:00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:15:39.328081+00:00</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:15:40.268640+00:00</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:15:44.657841+00:00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:16:21.725113+00:00</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:16:46.297884+00:00</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:17:25.342830+00:00</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:17:48.555628+00:00</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:17:50.301565+00:00</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:18:04.431250+00:00</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:18:06.682647+00:00</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:18:08.427865+00:00</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:18:09.959948+00:00</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:18:12.724687+00:00</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:18:14.782279+00:00</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:20:34.957565+00:00</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:21:01.895994+00:00</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:21:04.083671+00:00</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:21:04.951023+00:00</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:21:10.906591+00:00</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:21:13.772003+00:00</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Просмотр папки новая папка внутри папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:21:27.454850+00:00</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:27:51.228391+00:00</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Добавление дилера abobus</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2024-06-18 09:28:48.270218+00:00</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Добавление дилера curva_bobr</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:10:45.752700+00:00</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:10:59.987101+00:00</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Смена имени пользователя с "root" на "main_root"</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:11:27.636051+00:00</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:12:34.501460+00:00</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:14:07.277244+00:00</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:14:24.992730+00:00</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Смена имени пользователя с "main_root" на "main_root_2"</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:14:34.098336+00:00</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:14:54.997689+00:00</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Смена имени пользователя с "main_root_2" на "main_root_3"</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:15:02.273948+00:00</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Выход из аккаунта</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr"/>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:15:09.434993+00:00</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:15:20.709466+00:00</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Выход из аккаунта</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:15:30.455293+00:00</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:15:38.505777+00:00</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Смена имени пользователя с "main_root_3" на "root"</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:15:51.064581+00:00</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Выход из аккаунта</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:15:56.477379+00:00</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:40:50.984489+00:00</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:40:58.907340+00:00</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Просмотр папки Основная</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:41:31.242048+00:00</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Выход из аккаунта</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:49:08.839517+00:00</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2024-06-18 10:50:57.439932+00:00</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Выход из аккаунта</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2024-06-18 11:00:56.942380+00:00</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2024-06-18 11:16:54.238960+00:00</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Выход из аккаунта</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2024-06-18 12:11:20.045310+00:00</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>SERVER (LOCAL)</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Авторизация</t>
         </is>
       </c>
     </row>
